--- a/TestResources/TestCaseSheet.xlsx
+++ b/TestResources/TestCaseSheet.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -426,7 +426,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/TestResources/TestCaseSheet.xlsx
+++ b/TestResources/TestCaseSheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>TC_ID</t>
   </si>
@@ -41,9 +41,6 @@
   </si>
   <si>
     <t>MEM004,MEM001;MEM004,MEM001</t>
-  </si>
-  <si>
-    <t>Yes</t>
   </si>
   <si>
     <t>MEM005,MEM006,TXN002;MEM006,MEM008,TXN003</t>
@@ -426,7 +423,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -462,7 +459,7 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -473,9 +470,6 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
         <v>9</v>
       </c>
     </row>

--- a/TestResources/TestCaseSheet.xlsx
+++ b/TestResources/TestCaseSheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>TC_ID</t>
   </si>
@@ -43,10 +43,13 @@
     <t>MEM004,MEM001;MEM004,MEM001</t>
   </si>
   <si>
-    <t>MEM005,MEM006,TXN002;MEM006,MEM008,TXN003</t>
-  </si>
-  <si>
     <t>yes</t>
+  </si>
+  <si>
+    <t>MEM006,TXN002;MEM006,MEME005,TXN003</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
 </sst>
 </file>
@@ -423,7 +426,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -459,7 +462,7 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -470,6 +473,9 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
         <v>9</v>
       </c>
     </row>

--- a/TestResources/TestCaseSheet.xlsx
+++ b/TestResources/TestCaseSheet.xlsx
@@ -40,13 +40,13 @@
     <t>EnrollNewMember</t>
   </si>
   <si>
-    <t>MEM004,MEM001;MEM004,MEM001</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>MEM005,MEM006,TXN002;MEM006,MEM008,TXN003</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>MEM004,MEM001</t>
   </si>
   <si>
     <t>yes</t>
@@ -426,7 +426,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -459,7 +459,7 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
@@ -473,7 +473,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>

--- a/TestResources/TestCaseSheet.xlsx
+++ b/TestResources/TestCaseSheet.xlsx
@@ -426,7 +426,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -462,7 +462,7 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -476,7 +476,7 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/TestResources/TestCaseSheet.xlsx
+++ b/TestResources/TestCaseSheet.xlsx
@@ -40,9 +40,6 @@
     <t>EnrollNewMember</t>
   </si>
   <si>
-    <t>MEM005,MEM006,TXN002;MEM006,MEM008,TXN003</t>
-  </si>
-  <si>
     <t>no</t>
   </si>
   <si>
@@ -50,6 +47,9 @@
   </si>
   <si>
     <t>yes</t>
+  </si>
+  <si>
+    <t>MEM006,MEM008,TXN003</t>
   </si>
 </sst>
 </file>
@@ -426,7 +426,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -459,10 +459,10 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -473,10 +473,10 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/TestResources/TestCaseSheet.xlsx
+++ b/TestResources/TestCaseSheet.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
+    <sheet name="TestCases (2)" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
   <si>
     <t>TC_ID</t>
   </si>
@@ -50,12 +51,18 @@
   </si>
   <si>
     <t>yes</t>
+  </si>
+  <si>
+    <t>MEM004,MEM009,MSG001</t>
+  </si>
+  <si>
+    <t>MEM005,MEM006,TXN002</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -426,7 +433,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -459,6 +466,69 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
         <v>10</v>
       </c>
       <c r="D2" t="s">

--- a/TestResources/TestCaseSheet.xlsx
+++ b/TestResources/TestCaseSheet.xlsx
@@ -40,16 +40,16 @@
     <t>EnrollNewMember</t>
   </si>
   <si>
+    <t>MEM004,MEM001</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>MEM006,MEM008,TXN003</t>
+  </si>
+  <si>
     <t>no</t>
-  </si>
-  <si>
-    <t>MEM004,MEM001</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>MEM006,MEM008,TXN003</t>
   </si>
 </sst>
 </file>
@@ -426,7 +426,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -459,10 +459,10 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
         <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -473,10 +473,10 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
         <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/TestResources/TestCaseSheet.xlsx
+++ b/TestResources/TestCaseSheet.xlsx
@@ -56,7 +56,7 @@
     <t>MEM004,MEM009,MSG001</t>
   </si>
   <si>
-    <t>MEM005,MEM006,TXN002</t>
+    <t>MEM020,MEM006,TXN011,MSG001</t>
   </si>
 </sst>
 </file>
@@ -433,7 +433,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -469,7 +469,7 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -483,7 +483,7 @@
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/TestResources/TestCaseSheet.xlsx
+++ b/TestResources/TestCaseSheet.xlsx
@@ -53,10 +53,10 @@
     <t>yes</t>
   </si>
   <si>
-    <t>MEM004,MEM009,MSG001</t>
-  </si>
-  <si>
     <t>MEM005,MEM006,TXN002</t>
+  </si>
+  <si>
+    <t>MEM004,MEM009,ACC013,MSG001</t>
   </si>
 </sst>
 </file>
@@ -433,7 +433,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -466,10 +466,10 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -480,7 +480,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>

--- a/TestResources/TestCaseSheet.xlsx
+++ b/TestResources/TestCaseSheet.xlsx
@@ -56,7 +56,7 @@
     <t>MEM005,MEM006,TXN002</t>
   </si>
   <si>
-    <t>,MEM004,MEM009,ACC013,MSG001</t>
+    <t>MEM004,MEM009,ACC013,MSG001</t>
   </si>
 </sst>
 </file>
@@ -433,7 +433,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/TestResources/TestCaseSheet.xlsx
+++ b/TestResources/TestCaseSheet.xlsx
@@ -56,7 +56,7 @@
     <t>MEM005,MEM006,TXN002</t>
   </si>
   <si>
-    <t>MEM004,MEM009,ACC013,MSG001</t>
+    <t>MEM004,MEM012,ACC013,MSG003</t>
   </si>
 </sst>
 </file>
@@ -433,7 +433,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/TestResources/TestCaseSheet.xlsx
+++ b/TestResources/TestCaseSheet.xlsx
@@ -10,12 +10,12 @@
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
     <sheet name="TestCases (2)" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
   <si>
     <t>TC_ID</t>
   </si>
@@ -57,6 +57,36 @@
   </si>
   <si>
     <t>MEM004,MEM012,ACC013,MSG003</t>
+  </si>
+  <si>
+    <t>TC003</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>TC004</t>
+  </si>
+  <si>
+    <t>GenerateInvoice</t>
+  </si>
+  <si>
+    <t>TC005</t>
+  </si>
+  <si>
+    <t>GrantLoan</t>
+  </si>
+  <si>
+    <t>DepositAmount</t>
+  </si>
+  <si>
+    <t>MEM004,MEM011</t>
+  </si>
+  <si>
+    <t>MEM004,MEM010,LON002,MSG005</t>
+  </si>
+  <si>
+    <t>MEM014,MEM005,TXN004</t>
   </si>
 </sst>
 </file>
@@ -430,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -484,6 +514,48 @@
       </c>
       <c r="D3" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/TestResources/TestCaseSheet.xlsx
+++ b/TestResources/TestCaseSheet.xlsx
@@ -86,13 +86,13 @@
     <t>MEM004,MEM010,LON002,MSG005</t>
   </si>
   <si>
-    <t>MEM014,MEM005,TXN004</t>
+    <t>MEM004,MEM005,TXN004</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -463,7 +463,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
